--- a/Documents/QuestionsToBeRevisited.xlsx
+++ b/Documents/QuestionsToBeRevisited.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nitesh\Training\Data Structures\Workspace\DataStructure\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B68D76C-282E-47FD-B155-4856A348EB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Strings" sheetId="1" r:id="rId1"/>
+    <sheet name="Stack" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +25,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>CheckIfStringsAreRotation</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Given two strings s1 and s2. The task is to check if s2 is a rotated  version of the string s1. The characters in the strings are in lowercase.</t>
+  </si>
+  <si>
+    <t>(s1+s1).contains(s2)</t>
+  </si>
+  <si>
+    <t>Trick</t>
+  </si>
+  <si>
+    <t>DeleteMiddle</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,14 +90,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C9C6317E-8D77-49EA-8F33-B40EC930DDE1}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +403,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81B0976-54FA-4E01-93CD-C07E930863AE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/QuestionsToBeRevisited.xlsx
+++ b/Documents/QuestionsToBeRevisited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nitesh\Training\Data Structures\Workspace\DataStructure\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B68D76C-282E-47FD-B155-4856A348EB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63091FE-5F0F-42FB-8B56-50A8EBC1B7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>CheckIfStringsAreRotation</t>
   </si>
@@ -47,13 +47,104 @@
   </si>
   <si>
     <t>DeleteMiddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given a stack with push(), pop(), empty() operations, delete the middle of it without using any additional data structure</t>
+  </si>
+  <si>
+    <t>Use Recursion</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>TwoStacksInArray</t>
+  </si>
+  <si>
+    <t>Implement 2 stacks in one array efficiently</t>
+  </si>
+  <si>
+    <t>Use array start and end as two top to efficiently use array space</t>
+  </si>
+  <si>
+    <t>StockSpanProblem</t>
+  </si>
+  <si>
+    <t>The stock span problem is a financial problem where we have a series
+          of n daily price quotes for a stock and we need to calculate the span
+          of stock’s price for all n days. The span Si of the stock’s price on
+          a given day i is defined as the maximum number of consecutive days
+          just before the given day, for which the price of the stock on the
+          current day is less than or equal to its price on the given day. For
+          example, if an array of 7 days prices is given as {100, 80, 60, 70,
+          60, 75, 85}, then the span values for corresponding 7 days are {1, 1,
+         1, 2, 1, 4, 6}.</t>
+  </si>
+  <si>
+    <t>Very Imp question, see other variations. 
+Store prev minimums in stack</t>
+  </si>
+  <si>
+    <t>Solved after seeing hint</t>
+  </si>
+  <si>
+    <t>MinStack</t>
+  </si>
+  <si>
+    <t>You are given an array A of size N. You need to first push the
+          elements of the array into a stack and then print minimum in the
+          stack at each pop.</t>
+  </si>
+  <si>
+    <t>Keep storing min in new stack, pop all greater element if new element is min than those</t>
+  </si>
+  <si>
+    <t>MaxRectangularAreaInHistogram</t>
+  </si>
+  <si>
+    <t>Find the largest rectangular area possible in a given histogram where  the largest rectangle can be made of a number of contiguous bars. For simplicity, assume that all bars have the same width and the width is 1 unit.</t>
+  </si>
+  <si>
+    <t>Solved after seeing hints</t>
+  </si>
+  <si>
+    <t>Based on stock span.Find area for popped element using below element in stack and new element index.</t>
+  </si>
+  <si>
+    <t>FindCelibrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are in a party of N people, where only one person is known toeveryone. Such a person may be present in the party, if yes, (s)he doesn’t know anyone in the party. Your task is to find the stranger (celebrity) in party. </t>
+  </si>
+  <si>
+    <t>See Other solutions.
+Very hard to guess approach using stack. Store all candidate in stack and remove one of the two top element based on matrix result.</t>
+  </si>
+  <si>
+    <t>K stacks in an array</t>
+  </si>
+  <si>
+    <t>Implement k stacks in one array efficiently</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Maximum of minimum for every window size</t>
+  </si>
+  <si>
+    <t>Given an integer array. The task is to find the maximum of the minimum of every window size in the array.
+Note: Window size varies from 1 to the size of the Array.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +156,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,17 +186,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -447,20 +549,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81B0976-54FA-4E01-93CD-C07E930863AE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -470,13 +573,126 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{62CAB49E-C040-4650-A7FC-40766B4BDD61}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{4EE58BB6-61E4-45FE-9852-04E4329DF46E}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{D662F038-74AE-4E06-B3F2-4A8BC5FD3A5E}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{954B1AC7-345D-45D4-9065-A6D968CB779B}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{A4196E19-7958-43B8-8B98-28B0A7514358}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{CF587F97-3A0F-4F59-B7F3-5D419DC25BB2}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{D17FABD4-9C53-4ED8-9AF7-ADE637472179}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/QuestionsToBeRevisited.xlsx
+++ b/Documents/QuestionsToBeRevisited.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nitesh\Training\Data Structures\Workspace\DataStructure\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63091FE-5F0F-42FB-8B56-50A8EBC1B7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F8BCCA-3B6D-476B-A0A3-AFA3E2C3DC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
     <sheet name="Stack" sheetId="2" r:id="rId2"/>
+    <sheet name="Queue" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -551,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81B0976-54FA-4E01-93CD-C07E930863AE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -695,4 +696,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1494656-C928-43F3-9FFD-378FBD7F61F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/QuestionsToBeRevisited.xlsx
+++ b/Documents/QuestionsToBeRevisited.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nitesh\Training\Data Structures\Workspace\DataStructure\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F8BCCA-3B6D-476B-A0A3-AFA3E2C3DC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E1D97-268B-4959-A336-93EBBDE99100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
     <sheet name="Stack" sheetId="2" r:id="rId2"/>
     <sheet name="Queue" sheetId="3" r:id="rId3"/>
+    <sheet name="Tree" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>CheckIfStringsAreRotation</t>
   </si>
@@ -553,7 +554,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,10 +703,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1494656-C928-43F3-9FFD-378FBD7F61F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35700946-FCCD-44CE-A33F-5218766879A5}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/QuestionsToBeRevisited.xlsx
+++ b/Documents/QuestionsToBeRevisited.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nitesh\Training\Data Structures\Workspace\DataStructure\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E1D97-268B-4959-A336-93EBBDE99100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9CF0DE-2D25-4F58-B6DF-6693CF560885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1536" windowWidth="22740" windowHeight="11136" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Strings" sheetId="1" r:id="rId1"/>
-    <sheet name="Stack" sheetId="2" r:id="rId2"/>
-    <sheet name="Queue" sheetId="3" r:id="rId3"/>
-    <sheet name="Tree" sheetId="4" r:id="rId4"/>
+    <sheet name="Linked List" sheetId="7" r:id="rId1"/>
+    <sheet name="Hashing" sheetId="6" r:id="rId2"/>
+    <sheet name="Strings" sheetId="1" r:id="rId3"/>
+    <sheet name="Stack" sheetId="2" r:id="rId4"/>
+    <sheet name="Queue" sheetId="3" r:id="rId5"/>
+    <sheet name="Tree" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>CheckIfStringsAreRotation</t>
   </si>
@@ -140,6 +142,94 @@
   <si>
     <t>Given an integer array. The task is to find the maximum of the minimum of every window size in the array.
 Note: Window size varies from 1 to the size of the Array.</t>
+  </si>
+  <si>
+    <t>SubarraycountWithSum</t>
+  </si>
+  <si>
+    <t>Given an unsorted array of integers and a sum. The task is to count
+      the number of subarray which adds to the given sum.</t>
+  </si>
+  <si>
+    <t>Store Prefix sum in map and check for prefix sum -sum</t>
+  </si>
+  <si>
+    <t>LongestConsecutiveSubsequence</t>
+  </si>
+  <si>
+    <t>Given an array of positive integers. Find the length of the longest sub-sequence such that elements in the subsequence are consecutive integers, the consecutive numbers can be in any order. 
+         Input: N = 7 a[] = {1,9,3,10,4,20,2} Output: 4 Explanation: 1, 2, 3,
+          4 is the longest consecutive subsequence.</t>
+  </si>
+  <si>
+    <t>check for all subarrays starting point , for it check until we donot have next value in set</t>
+  </si>
+  <si>
+    <t>CloneLinkedListWithRandomPointer</t>
+  </si>
+  <si>
+    <t>Use hashing to store new cloned node for key as current node. 
+Iterate current list and form cloned list by getting values from hashmap.</t>
+  </si>
+  <si>
+    <t>1st Method</t>
+  </si>
+  <si>
+    <t>2nd Method</t>
+  </si>
+  <si>
+    <t>Insert clone node as next of each node
+Assign next and arbitary as next and arbitary of previous node
+Detach cloned nodes</t>
+  </si>
+  <si>
+    <t>DetectLoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Given a linked list of N nodes. The task is to check if the  linked list has a loop. Linked list can contain self loop.</t>
+  </si>
+  <si>
+    <t>Slow and fast pointer , if they meet it’s a loop</t>
+  </si>
+  <si>
+    <t>NthNodeFromEnd</t>
+  </si>
+  <si>
+    <t>Given a linked list consisting of L nodes and given a number N. The   task is to find the Nth node from the end of the linked list.</t>
+  </si>
+  <si>
+    <t>take two pointers, iterate first pointer n times then iterate next pointer till first becomes null</t>
+  </si>
+  <si>
+    <t>LRU cache</t>
+  </si>
+  <si>
+    <t>Remove Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are given a linked list of N nodes. The task is to remove the    loop from the linked list, if present.</t>
+  </si>
+  <si>
+    <t>GenerateBinaryNum</t>
+  </si>
+  <si>
+    <t>Given a number N. The task is to generate and print all binary
+         numbers with decimal values from 1 to N</t>
+  </si>
+  <si>
+    <t>Poll element and add two alements by adding 0 and 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given an array arr[] of size N and an integer K. Find the maximum for each and every contiguous subarray of size K.</t>
+  </si>
+  <si>
+    <t>Check for solution using dequeue, can be done using minheap</t>
+  </si>
+  <si>
+    <t>ReverseQueue</t>
+  </si>
+  <si>
+    <t>MaxOfAllSubarray</t>
   </si>
 </sst>
 </file>
@@ -192,13 +282,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -243,6 +346,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4099560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92326E2-C80A-4DAD-821B-8F3A4F44005B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="182880"/>
+          <a:ext cx="4099560" cy="1493520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,6 +665,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4F1A6B-3E8A-4122-85BA-A250FBE834B7}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C792673-374E-44EA-8438-AF9DDD4E096E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -549,12 +863,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81B0976-54FA-4E01-93CD-C07E930863AE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,23 +1013,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1494656-C928-43F3-9FFD-378FBD7F61F4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="3" max="3" width="77.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CFA9AB58-E63E-4863-BFCB-17AF5ED0CD13}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{A9BCC87A-4730-40FB-A205-A66C35CF8E6F}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{4F4C2802-2A1E-458C-8ADE-12574AF20876}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35700946-FCCD-44CE-A33F-5218766879A5}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Documents/QuestionsToBeRevisited.xlsx
+++ b/Documents/QuestionsToBeRevisited.xlsx
@@ -1,36 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nitesh\Training\Data Structures\Workspace\DataStructure\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9CF0DE-2D25-4F58-B6DF-6693CF560885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7BB3F3-51F5-4C6F-96B8-5CB2A7516A06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1536" windowWidth="22740" windowHeight="11136" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="768" windowWidth="22740" windowHeight="11136" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linked List" sheetId="7" r:id="rId1"/>
-    <sheet name="Hashing" sheetId="6" r:id="rId2"/>
-    <sheet name="Strings" sheetId="1" r:id="rId3"/>
-    <sheet name="Stack" sheetId="2" r:id="rId4"/>
-    <sheet name="Queue" sheetId="3" r:id="rId5"/>
-    <sheet name="Tree" sheetId="4" r:id="rId6"/>
+    <sheet name="Heap" sheetId="8" r:id="rId2"/>
+    <sheet name="Hashing" sheetId="6" r:id="rId3"/>
+    <sheet name="Strings" sheetId="1" r:id="rId4"/>
+    <sheet name="Stack" sheetId="2" r:id="rId5"/>
+    <sheet name="Queue" sheetId="3" r:id="rId6"/>
+    <sheet name="Tree" sheetId="4" r:id="rId7"/>
+    <sheet name="Array" sheetId="9" r:id="rId8"/>
+    <sheet name="Bitwise" sheetId="10" r:id="rId9"/>
+    <sheet name="Maths" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>CheckIfStringsAreRotation</t>
   </si>
@@ -230,6 +242,57 @@
   </si>
   <si>
     <t>MaxOfAllSubarray</t>
+  </si>
+  <si>
+    <t>Build heap</t>
+  </si>
+  <si>
+    <t>Given an array build a Min or Max heap from it</t>
+  </si>
+  <si>
+    <t>More emphasis on time complextity to explain why its O(n).</t>
+  </si>
+  <si>
+    <t>K Lasrgest Elements</t>
+  </si>
+  <si>
+    <t>Given an array of N positive integers, print k largest elements from the array. 
+         Example 1:
+         Input: N = 5, k = 2 arr[] = {12,5,787,1,23} Output: 787 23
+         Explanation: First largest element in the array is 787 and the second
+         largest is 23.</t>
+  </si>
+  <si>
+    <t>Use Min heap of Size k and compare from peek to insert new element or not.Time complexity O(K +(n-k)logk)</t>
+  </si>
+  <si>
+    <t>K Closest Elements</t>
+  </si>
+  <si>
+    <t>Given an usorted array , find k closest elements to x</t>
+  </si>
+  <si>
+    <t>Use Max heap with custom priority as difference with x</t>
+  </si>
+  <si>
+    <t>Merge K sorted arrays</t>
+  </si>
+  <si>
+    <t>Given k sorted arrays, return a merged sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Min heap of size k with data as custom object which stores element , array number and current index in that array </t>
+  </si>
+  <si>
+    <t>Median Of a Stream</t>
+  </si>
+  <si>
+    <t>Find median of unsorted running stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisit 
+Use Max heap and Min heap to maintain lower half and higher half
+</t>
   </si>
 </sst>
 </file>
@@ -297,10 +360,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -669,7 +732,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +823,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F3662E-29F5-4A69-93A0-66B4DACDF948}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4183809-44FB-4A88-9E8E-748CD65AB655}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{6D4FB937-C166-486B-8D21-884FF01F061B}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{6FE0DDBD-FD2B-405C-B9BF-EF8C617AE6ED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C792673-374E-44EA-8438-AF9DDD4E096E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -790,7 +957,7 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -798,7 +965,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -820,7 +987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -863,11 +1030,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81B0976-54FA-4E01-93CD-C07E930863AE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1494656-C928-43F3-9FFD-378FBD7F61F4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1054,7 +1221,7 @@
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
@@ -1079,7 +1246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35700946-FCCD-44CE-A33F-5218766879A5}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1111,4 +1278,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DE9135-43BF-4BF9-ACA3-CB3972FBC54A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2803317-178A-40AC-A2F4-0CECDF11015C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>